--- a/docs/data_documentation.xlsx
+++ b/docs/data_documentation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>step</t>
   </si>
@@ -238,18 +238,12 @@
     <t>No missing values found in any column</t>
   </si>
   <si>
-    <t xml:space="preserve">Pivot table </t>
-  </si>
-  <si>
     <t>Inserted Pivot Table: `category` - Rows, `sales` - Values (Sum), renamed field to `Total Sales`</t>
   </si>
   <si>
     <t>Pivot Table generated: totals match raw dataset(₱2,297,200.86); numbers formatted as ₱ currency</t>
   </si>
   <si>
-    <t>Pivot report</t>
-  </si>
-  <si>
     <t>added `sub_category` under `category` in Pivot Table, applied currency formatting, inserted Pivot Chart (Clustered Column), added titles</t>
   </si>
   <si>
@@ -269,6 +263,48 @@
   </si>
   <si>
     <t>Fix data types</t>
+  </si>
+  <si>
+    <t>Find and Replace (Oct 2)</t>
+  </si>
+  <si>
+    <t>Used Find and Replace (Ctrl +H) with Match enitre cell contents:</t>
+  </si>
+  <si>
+    <t>CA - California</t>
+  </si>
+  <si>
+    <t>TX - Texas</t>
+  </si>
+  <si>
+    <t>West - west</t>
+  </si>
+  <si>
+    <t>Abbreviations expanded, casing standardized; verified replacements applied correctly</t>
+  </si>
+  <si>
+    <t>Inserted Pivot Table (product_name in Rows, sales in Values). Sorted descending, applied Top 10 filter, formatted sales in ₱.</t>
+  </si>
+  <si>
+    <t>Sheet top10_product_sales created showing top 10 products by total sales.</t>
+  </si>
+  <si>
+    <t>Formatted Pivot Table (top10_product_sales) with title, bold headers, ₱ currency, borders, and footer note. Exported as PDF</t>
+  </si>
+  <si>
+    <t>File top10_products_report.pdf created and saved in /reports/ for publishing.</t>
+  </si>
+  <si>
+    <t>Pivot table (Oct 1)</t>
+  </si>
+  <si>
+    <t>Pivot report (Oct 1)</t>
+  </si>
+  <si>
+    <t>Top 10 Products by Sales (Oct 2)</t>
+  </si>
+  <si>
+    <t>Top 10 Products Report (Oct 2)</t>
   </si>
 </sst>
 </file>
@@ -312,16 +348,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,370 +935,376 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>78</v>
+      <c r="C43" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
